--- a/fine-tuning/GPT/executability.xlsx
+++ b/fine-tuning/GPT/executability.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanm\OntoGenixLLMExperiments\fine-tuning\GPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45982C6-7D30-4E1D-A40E-194FF5BC4614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A225B929-DF48-42DA-8857-D2ECBDE5C35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="16">
   <si>
     <t>AirlinesCustomerSatisfaction</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Incorrect serialization (shortnames)</t>
+  </si>
+  <si>
+    <t>Valid</t>
   </si>
 </sst>
 </file>
@@ -409,7 +412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -563,7 +566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9289EBE8-59E9-4692-9747-E1DF5C29C5F7}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -604,22 +607,22 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -627,22 +630,22 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -650,22 +653,22 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
